--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayush/Desktop/distsystemsA2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71625591-2E60-C646-A1E0-2166CFF9354D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBDFE96-04D9-D64F-B6AE-E4D4FCD426DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="460" windowWidth="24260" windowHeight="17040" xr2:uid="{C36624C5-E17E-4446-BF3D-16FAE2EFB041}"/>
+    <workbookView xWindow="8680" yWindow="460" windowWidth="19740" windowHeight="17040" xr2:uid="{C36624C5-E17E-4446-BF3D-16FAE2EFB041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Test 1</t>
   </si>
@@ -67,6 +67,33 @@
   </si>
   <si>
     <t>Test 4</t>
+  </si>
+  <si>
+    <t>Avg time to publish (ms)</t>
+  </si>
+  <si>
+    <t>Avg time to receive (ms)</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Average latency for a publication in a 1 second test (ms)</t>
+  </si>
+  <si>
+    <t>1pub,1sub,1brok</t>
+  </si>
+  <si>
+    <t>1pub,10sub,1brok</t>
+  </si>
+  <si>
+    <t>10pub,1sub,1brok</t>
+  </si>
+  <si>
+    <t>Average latency for a subscriber to receive a message in a 1 second test (ms)</t>
+  </si>
+  <si>
+    <t>Avg time to receive per broker(ms)</t>
   </si>
 </sst>
 </file>
@@ -425,121 +452,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A273DA83-3027-AF48-92C1-388E8DF80EA2}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>127</v>
       </c>
       <c r="B3" s="1">
         <v>2033</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f>1000/B3</f>
+        <v>0.49188391539596654</v>
+      </c>
+      <c r="E3">
+        <f>1000/A3</f>
+        <v>7.8740157480314963</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>0.51116379514280408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>768</v>
       </c>
       <c r="B4" s="1">
         <v>1930</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">1000/B4</f>
+        <v>0.51813471502590669</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="1">1000/A4</f>
+        <v>1.3020833333333333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0.53420377465051627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>120</v>
       </c>
       <c r="B5" s="1">
         <v>1920</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>4.2023869557908897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>2180</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.45871559633027525</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1764</v>
       </c>
       <c r="B7" s="1">
         <v>1766</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0.56625141562853909</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.56689342403628118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <f>AVERAGE(D3:D7)</f>
+        <v>0.51116379514280408</v>
+      </c>
+      <c r="E8">
+        <f>AVERAGE(E3:E7)</f>
+        <v>8.0597096121913321</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <v>8.0597096121913321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>5.710684728249122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>14.731879787860931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>213.7</v>
       </c>
       <c r="B12" s="1">
         <v>1874</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f>1000/B12</f>
+        <v>0.53361792956243326</v>
+      </c>
+      <c r="E12">
+        <f>1000/A12</f>
+        <v>4.6794571829667762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>182.8</v>
       </c>
       <c r="B13" s="1">
         <v>1871</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f t="shared" ref="D13:D16" si="2">1000/B13</f>
+        <v>0.53447354355959376</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E16" si="3">1000/A13</f>
+        <v>5.4704595185995624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>116</v>
       </c>
       <c r="B14" s="1">
         <v>1999</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.5002501250625313</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>8.6206896551724146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>248.4</v>
       </c>
       <c r="B15" s="1">
         <v>1979</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.50530570995452251</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>4.0257648953301128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>173.7</v>
       </c>
       <c r="B16" s="1">
         <v>1674</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.59737156511350065</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>5.7570523891767422</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(D12:D16)</f>
+        <v>0.53420377465051627</v>
+      </c>
+      <c r="E17">
+        <f>AVERAGE(E12:E16)</f>
+        <v>5.710684728249122</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -707,7 +897,7 @@
         <v>190</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B24" si="0">AVERAGE(C23:M23)</f>
+        <f t="shared" ref="B23:B24" si="4">AVERAGE(C23:M23)</f>
         <v>252.7</v>
       </c>
       <c r="C23">
@@ -746,7 +936,7 @@
         <v>1423</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>226.2</v>
       </c>
       <c r="C24" s="1">
@@ -800,77 +990,95 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>1000/B26</f>
+        <v>4.2023869557908897</v>
+      </c>
+      <c r="B29">
+        <f>10*1000/A26</f>
+        <v>14.731879787860931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>12</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>4</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f>C30-B30</f>
-        <v>1.0399818420410156E-3</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1583458092.5333099</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1583458092.5343499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" ref="A31:A34" si="1">C31-B31</f>
-        <v>7.7986717224121094E-4</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1583458112.50072</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1583458112.5014999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>8.2993507385253906E-4</v>
-      </c>
-      <c r="B32" s="1">
-        <v>1583458121.6364901</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1583458121.63732</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f>C33-B33</f>
         <v>1.0399818420410156E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>1583458143.1378</v>
+        <v>1583458092.5333099</v>
       </c>
       <c r="C33" s="1">
-        <v>1583458143.13884</v>
+        <v>1583458092.5343499</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A34:A37" si="5">C34-B34</f>
+        <v>7.7986717224121094E-4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1583458112.50072</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1583458112.5014999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="5"/>
+        <v>8.2993507385253906E-4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1583458121.6364901</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1583458121.63732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="5"/>
+        <v>1.0399818420410156E-3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1583458143.1378</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1583458143.13884</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="5"/>
         <v>1.2500286102294922E-3</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B37" s="1">
         <v>1583458152.75207</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C37" s="1">
         <v>1583458152.75332</v>
       </c>
     </row>
